--- a/LIFTOFF/verified_genes_summary.xlsx
+++ b/LIFTOFF/verified_genes_summary.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA54F02-5B7C-454C-A7FC-D74AA82AD000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Number valid genes</t>
   </si>
@@ -28,7 +34,13 @@
     <t>Number of missing genes</t>
   </si>
   <si>
-    <t>Missing verified genes</t>
+    <t>Missing genes</t>
+  </si>
+  <si>
+    <t>Number of moved genes</t>
+  </si>
+  <si>
+    <t>Moved genes, new chromosome(s), orf validity</t>
   </si>
   <si>
     <t>mitoch</t>
@@ -85,59 +97,86 @@
     <t>['Q0105', 'Q0110', 'Q0115', 'Q0120', 'Q0140', 'Q0250', 'Q0275', 'Q0045', 'Q0050', 'Q0055', 'Q0060', 'Q0065', 'Q0070', 'Q0085', 'Q0105', 'Q0110', 'Q0115', 'Q0120', 'Q0140']</t>
   </si>
   <si>
-    <t>['YDR385W', 'YDR542W', 'YDL248W', 'YDR545W', 'YDL244W']</t>
-  </si>
-  <si>
-    <t>['YOR133W', 'YOR247W', 'YOR390W', 'YOR394W', 'YOR255W', 'YOR246C']</t>
-  </si>
-  <si>
-    <t>['YGR294W', 'YGR200C', 'YGL133W', 'YGL136C', 'YGL051W', 'YGL135W', 'YGL137W', 'YGL263W', 'YGR296W', 'YGL134W', 'YGL053W']</t>
-  </si>
-  <si>
-    <t>['YLR132C', 'YLR160C', 'YLR466W', 'YLR461W', 'YLR157C', 'YLR158C', 'YLR155C', 'YLR154W-C', 'YLR467W']</t>
-  </si>
-  <si>
-    <t>['YPL283C', 'YPR204W', 'YPL281C', 'YPL279C', 'YPL280W']</t>
-  </si>
-  <si>
-    <t>['YMR323W', 'YMR322C', 'YMR105C', 'YMR325W', 'YML132W']</t>
-  </si>
-  <si>
-    <t>['YBL108C-A', 'YBR302C', 'YBL111C']</t>
-  </si>
-  <si>
-    <t>['YNL329C', 'YNL332W', 'YNL333W', 'YNL328C', 'YNR076W', 'YNL331C', 'YNL336W', 'YNL323W', 'YNL339C', 'YNL334C', 'YNL335W', 'YNL326C', 'YNL330C', 'YNL325C', 'YNL327W']</t>
-  </si>
-  <si>
-    <t>['YJR159W', 'YJR161C', 'YJR160C', 'YJR158W', 'YJL223C']</t>
-  </si>
-  <si>
-    <t>['YKL224C', 'YKR106W']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['YHR216W', 'YHL048W', 'YHR215W', 'YHR211W']</t>
-  </si>
-  <si>
-    <t>['YCL069W', 'YCR107W', 'YCR104W', 'YCR106W', 'YCR105W']</t>
-  </si>
-  <si>
-    <t>['YFL060C', 'YFL058W', 'YFL062W', 'YFL059W', 'YFL061W']</t>
-  </si>
-  <si>
-    <t>['YAL068C', 'YAR027W']</t>
+    <t>['YOR246C', 'YOR255W', 'YOR247W']</t>
+  </si>
+  <si>
+    <t>['YGL133W', 'YGL137W', 'YGL134W', 'YGL136C']</t>
+  </si>
+  <si>
+    <t>['YLR160C', 'YLR157C', 'YLR158C', 'YLR154W-C', 'YLR155C']</t>
+  </si>
+  <si>
+    <t>['YNL329C', 'YNL328C', 'YNL323W', 'YNL325C', 'YNL330C', 'YNL327W', 'YNL326C']</t>
+  </si>
+  <si>
+    <t>['YCR105W']</t>
   </si>
   <si>
     <t>['Q0160']</t>
+  </si>
+  <si>
+    <t>[('YDR385W', [15], ['1']), ('YDL248W', [13], ['0']), ('YDL244W', [6], ['1']), ('YDR542W', [1], ['1']), ('YDR545W', [5], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YOR394W', [16], ['0']), ('YOR390W', [16], ['1']), ('YOR133W', [4], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YGL263W', [12, 12], ['0', '1']), ('YGR296W', [5], ['1']), ('YGR294W', [2, 2], ['1', '1']), ('YGL051W', [1], ['1']), ('YGL053W', [1], ['1']), ('YGL135W', [16], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YLR467W', [5], ['1']), ('YLR466W', [5], ['0']), ('YLR461W', [1], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YPL281C', [15], ['1']), ('YPL279C', [15], ['1']), ('YPL280W', [15], ['1']), ('YPL283C', [5], ['1']), ('YPR204W', [5], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YMR105C', [11], ['1']), ('YMR325W', [15, 16], ['1', '1']), ('YML132W', [10], ['0']), ('YMR323W', [15, 16], ['1', '0']), ('YMR322C', [16], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YBL111C', [5], ['0']), ('YBL108C-A', [9, 12, 12], ['1', '1', '1']), ('YBR302C', [10], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YNL334C', [10], ['1']), ('YNL333W', [10], ['1']), ('YNR076W', [12], ['1']), ('YNL335W', [10], ['1']), ('YNL339C', [5], ['1']), ('YNL332W', [10], ['1']), ('YNL336W', [10], ['0']), ('YNL331C', [4], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YJR159W', [4], ['1']), ('YJR161C', [13], ['0']), ('YJL223C', [9], ['1']), ('YJR158W', [4], ['1']), ('YJR160C', [4], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YKL224C', [9], ['1']), ('YKR106W', [3], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YHL048W', [9], ['0']), ('YHR216W', [1], ['1']), ('YHR215W', [1], ['1']), ('YHR211W', [1], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YCR107W', [6], ['0']), ('YCR106W', [15], ['0']), ('YCR104W', [16], ['1']), ('YCL069W', [11], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YFL058W', [4, 10], ['1', '1']), ('YFL060C', [10], ['1']), ('YFL059W', [10], ['1']), ('YFL062W', [10], ['0']), ('YFL061W', [10], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YAL068C', [7, 10], ['1', '1']), ('YAR027W', [7], ['0'])]</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Missing genes are all in same region, very close to rDNA and a Ty1 element in S288C reference genome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,14 +224,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,6 +259,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +345,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +397,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,371 +590,534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="51.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="31.953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="57.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="59" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>673</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>467</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>457</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="59" x14ac:dyDescent="0.75">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>432</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>405</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A7" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>394</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>360</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="59" x14ac:dyDescent="0.75">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>326</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>316</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>291</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>249</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>232</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>467</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>457</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>432</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>405</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>394</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>360</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>326</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>316</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>291</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>249</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>232</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>178</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>130</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>97</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <f>SUM(B2:B18)</f>
+        <v>5087</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:G19" si="0">SUM(C2:C18)</f>
+        <v>162</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="3">
+        <f>SUM(B19:G19)</f>
+        <v>5330</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LIFTOFF/verified_genes_summary.xlsx
+++ b/LIFTOFF/verified_genes_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA54F02-5B7C-454C-A7FC-D74AA82AD000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA7B675-9AE3-4CAD-A5E6-824045688C12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
